--- a/src/main/webapp/WEB-INF/print/excel/COM_PiecesStorageLabel.xlsx
+++ b/src/main/webapp/WEB-INF/print/excel/COM_PiecesStorageLabel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UDF-WKZODZ</t>
   </si>
   <si>
     <t>2015-07-31 09:15:39</t>
-  </si>
-  <si>
-    <t>*PC00015720*</t>
   </si>
   <si>
     <t>PC000</t>
@@ -58,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,55 +210,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>6570</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>192755</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>144846</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3102195" y="0"/>
-          <a:ext cx="414785" cy="449646"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,26 +503,26 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="3.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="2" style="2" customWidth="1"/>
     <col min="12" max="12" width="3" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,9 +535,9 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="10.5" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="2">
@@ -597,12 +545,12 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3">
@@ -612,7 +560,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -621,13 +569,11 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="5.25" customHeight="1">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="1:14" ht="49.8">
+      <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -641,12 +587,12 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="4.5" customHeight="1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="45.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="42.6">
       <c r="A7" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -662,9 +608,9 @@
       <c r="M7" s="12"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="48.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -681,7 +627,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
@@ -697,6 +643,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="259" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>